--- a/src/main/resources/bulk-transfer-upload.xlsx
+++ b/src/main/resources/bulk-transfer-upload.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkfkt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>입금계좌번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한글금액표시(원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>받는분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,18 +83,6 @@
   </si>
   <si>
     <t>월급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼백만원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼백오십만원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사백만원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,20 +444,21 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
-    <col min="2" max="2" width="25.09765625" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" customWidth="1"/>
+    <col min="1" max="1" width="17.58203125" customWidth="1"/>
+    <col min="2" max="2" width="25.08203125" customWidth="1"/>
+    <col min="3" max="3" width="18.9140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="17.8984375" customWidth="1"/>
-    <col min="7" max="7" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.9140625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,127 +471,109 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>3000000</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3500000</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>4000000</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3000000</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3000000</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
